--- a/outputs/MYRTLE3.xlsx
+++ b/outputs/MYRTLE3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi's primary motivation is to decide whether to attend the conference, and knowing what is being presented is crucial to making that decision. Additionally, Abi's comprehensive information processing style means that gathering detailed information about the presentations at the conference is a necessary step toward her overall goal.</t>
+Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, her comprehensive information processing style would lead her to gather detailed information about the conference presentations to make an informed decision.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page is well-structured and provides a clear overview of the conference and its events. The action of scrolling down to find more detailed information aligns with Abi's comprehensive information processing style. The page design and layout make it intuitive for Abi to scroll down to discover what is being presented at the conference.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page layout is clear, and the information about the conference is prominently displayed, making it easy for Abi to understand that she needs to scroll down to find more details. This action does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down does provide some information about the keynotes and presenters, it may not provide comprehensive details about all the sessions and presentations at the conference. Abi's comprehensive information processing style means she would prefer to have a complete understanding of the presentations. Additionally, Abi's low computer self-efficacy may make her uncertain if she has accessed all the necessary information, especially if it is not immediately clear that there is more information available via additional links or sections. The page does not explicitly guide Abi on where to find the complete list of presentations, which could leave her feeling unsure if she has done the right thing and is making progress toward her goal.</t>
+Why: While scrolling down provides some information about the conference, it does not give a comprehensive overview of all the presentations. The page lists keynotes and some events, but it lacks detailed information about the full schedule and specific presentations. Abi, with her comprehensive information processing style, would need more detailed information to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy might make her uncertain if she has found all the necessary information.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page is designed in a way that scrolling down reveals more information about the conference, including keynotes and other events. This aligns with Abi's comprehensive information processing style, as she will naturally scroll down to gather more details. The clear and structured layout of the page indicates that further information can be accessed by scrolling, making it intuitive for Abi to take this action.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page layout is clear and provides a logical flow of information. The presence of keynotes and a schedule overview at the top of the page indicates that more detailed information can be found by scrolling down. This aligns with Abi's comprehensive information processing style, as she would naturally scroll to gather more information. Additionally, scrolling is a simple action that does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down does provide some information about the conference, such as keynotes and some sessions, it does not provide a complete overview of what is being presented. Abi's comprehensive information processing style means she would prefer to have a full list of sessions and presentations to make an informed decision. The page does not make it clear if there is more detailed information available elsewhere, which could cause Abi to feel uncertain about whether she has completed the step correctly. Abi's low computer self-efficacy may also cause her to doubt if she has found all the necessary information, leading her to feel she has not made sufficient progress toward her goal.</t>
+Why: After scrolling down, Abi will find some information about keynotes and a schedule overview, but this does not provide a comprehensive list of all presentations at the conference. Abi's comprehensive information processing style means she needs detailed information to feel confident she is making progress toward her goal. Additionally, her low computer self-efficacy might make her uncertain if she has found all the necessary information, as the page does not clearly indicate where to find the full list of presentations.</t>
         </is>
       </c>
     </row>
@@ -470,17 +470,17 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The link labeled "Program of POPL 2019" is clearly visible and directly suggests that it will lead to more detailed information about the conference program. This aligns with Abi's comprehensive information processing style and process-oriented learning style, as she would look for explicit and structured ways to gather the necessary details. The page layout and the link's labeling provide enough guidance for Abi to confidently understand that clicking the link will help her progress toward finding out what is being presented at the conference.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The link "Program of POPL 2019" is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify it as a relevant link to click for more information. This aligns with her comprehensive information processing style, as she would look for detailed information about the conference program. Additionally, the clear labeling and placement of the link make it straightforward for Abi to understand what to do, despite her low computer self-efficacy.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking the "Program of POPL 2019" link, Abi lands on a page that provides a detailed and comprehensive list of all the sessions and presentations at the conference. This aligns well with her comprehensive information processing style, as it offers a thorough overview of what is being presented. The structured and exhaustive format of the information will help Abi feel confident that she did the right thing and is making significant progress toward her goal of understanding the conference's offerings. The page's detailed nature also supports her process-oriented learning style, as it provides clear, structured information she can review.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While Abi will land on a page with a detailed list of presentations, the sheer volume of information presented in a long, continuous list can be overwhelming. Abi's comprehensive information processing style means she needs to process all this information to feel confident she is making progress toward her goal. However, the lack of organization or filtering options can make it difficult for her to find specific information efficiently. Additionally, her low computer self-efficacy might make her feel uncertain about navigating such a dense page, potentially causing her to doubt if she has found all the necessary information.</t>
         </is>
       </c>
     </row>
@@ -488,17 +488,17 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page provides a detailed and structured list of sessions and presentations, which aligns with Abi's comprehensive information processing style. It is clear that scrolling down will reveal more information, as the format indicates a continuation of the list. The design and layout make it intuitive for Abi to understand that scrolling will help her access additional details about the conference program.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page is structured in a way that presents a long list of information, which suggests that scrolling down will reveal more details. Abi's comprehensive information processing style will lead her to scroll to gather all the necessary information. Additionally, scrolling is a simple action that does not require high technical skills, so her low computer self-efficacy will not be a barrier. The page layout makes it clear that more information is available by scrolling down.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After scrolling down, Abi will see a comprehensive and detailed list of sessions and presentations, which aligns with her comprehensive information processing style. The structured layout of the information will help Abi feel confident that she is making progress toward her goal. The detailed nature of the page ensures that she gets all the information she needs to understand what is being presented at the conference, satisfying her process-oriented learning style.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling down will reveal more information, the page presents a very long and dense list of presentations without any clear organization or filtering options. This can be overwhelming for Abi, who prefers a comprehensive information processing style. She may find it difficult to determine if she has found all the necessary information due to the sheer volume and lack of structure. Additionally, her low computer self-efficacy might make her feel uncertain about navigating such a dense page, causing her to doubt if she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page contains a long list of sessions and presentations, but it is not immediately clear that clicking on individual items, such as a distinguished paper, will provide additional information. Abi's low computer self-efficacy might make her hesitant to click on items without explicit instructions or indications of what will happen. Additionally, Abi's process-oriented learning style means she prefers clear, step-by-step instructions, and the page does not provide clear guidance on the action of clicking a paper title. Therefore, Abi may not feel confident in knowing that clicking on the distinguished paper is the right action to take.</t>
+Why: The page presents a long list of papers without clear indications of which ones are distinguished. Abi, with her low computer self-efficacy, might feel uncertain about which paper to click on, especially if there are no clear labels or instructions. Additionally, her process-oriented learning style means she prefers clear, step-by-step instructions, which are not provided on this page. The lack of clear guidance makes it difficult for her to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking on the distinguished paper, Abi is provided with a detailed pop-up containing comprehensive information about the paper, including the title, authors, abstract, and related details. This setup aligns with Abi's comprehensive information processing style and process-oriented learning style, providing her with explicit details in a clear and structured manner. The pop-up confirms that she did the right thing by clicking on the paper, and the thorough information helps her make progress toward her goal of understanding what is being presented at the conference.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, authors, and a summary. This aligns with her comprehensive information processing style, as it provides all the necessary details in a clear and organized manner. Additionally, the pop-up format is straightforward and easy to navigate, which will help Abi feel confident that she is making progress toward her goal and has found the information she needs, despite her low computer self-efficacy.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The current page does not provide a clear and intuitive way to go back to the main page or navigate to the tutorial section. Abi's low computer self-efficacy might make her hesitant to take actions without explicit guidance. Additionally, her process-oriented learning style means she prefers clear instructions and a structured path to follow. The lack of visible navigation options or instructions on how to return to the main page or check tutorials means Abi might feel uncertain about how to proceed. This can hinder her confidence and progress towards finding out what is being presented at the conference.</t>
+Why: The current page does not provide a clear way to navigate back to the main page. Abi, with her low computer self-efficacy, might feel uncertain about how to return to the main page to check the tutorial. Additionally, her process-oriented learning style means she prefers clear, step-by-step instructions, which are not provided on this page. The lack of clear navigation options makes it difficult for her to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -533,8 +533,8 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: Returning to the main page will provide Abi with additional sections and links, such as the "List of Papers Accepted for POPL 2019" and other events like tutorials. The main page is well-organized and offers a clear path to explore different parts of the conference program. This aligns with Abi's comprehensive information processing style and process-oriented learning style, as it provides structured information and multiple options to gather details. Abi will know that she is making progress toward her goal because the main page offers a broader overview and access to various segments of the conference, ensuring she can find all the information she needs.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: If Abi successfully navigates back to the main page, she will recognize that she is making progress toward her goal because the main page provides clear links and information about the conference, including tutorials. The main page is well-organized and provides a logical flow of information, which aligns with her comprehensive information processing style. Additionally, the clear layout and labeling of links will help her feel confident that she is on the right track, despite her low computer self-efficacy.</t>
         </is>
       </c>
     </row>
@@ -542,8 +542,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The main page clearly lists the "TutorialFest" as part of the conference events, and it is visually placed in a prominent area. This is intuitive for Abi to understand that clicking on one of the tutorial links will provide more information about the tutorials. The structured layout and explicit labeling align with Abi's comprehensive information processing style and process-oriented learning style, allowing her to feel confident in knowing what to do at this step and that the action will lead her to the information she needs.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page is well-organized and clearly labels the "TutorialFest" section, making it easy for Abi to identify the relevant links. This aligns with her comprehensive information processing style, as she can see that clicking on a tutorial link will provide more detailed information. Additionally, the clear labeling and straightforward layout will help Abi feel confident in taking this action, despite her low computer self-efficacy. The page provides enough guidance for her to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the TutorialFest link, Abi lands on a page that lacks detailed information about the tutorials. The page mainly contains a few links and some committee information, but it does not provide a comprehensive list or details of the tutorials. Abi's comprehensive information processing style and low computer self-efficacy mean she may feel uncertain if she has made progress toward her goal. The lack of immediate, detailed information may make her question if she did the right thing and if she is on the right track to gathering all the necessary information about the tutorials being presented at the conference.</t>
+Why: After clicking on the TutorialFest link, Abi lands on a page that does not immediately provide detailed information about the tutorials. The page has links to "About," "Program," "List of Tutorials," and "Call for Tutorials," but it is not immediately clear which link will provide the comprehensive information she needs. Abi's comprehensive information processing style means she needs detailed information to feel confident she is making progress toward her goal. Additionally, her low computer self-efficacy might make her feel uncertain about which link to click next, causing her to doubt if she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE3.xlsx
+++ b/outputs/MYRTLE3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, Abi's comprehensive information processing style means she would consider gathering detailed information about the conference presentations as an essential step in her decision-making process.</t>
+Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial information for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, the page provides a comprehensive overview of the schedule and keynotes, which fits Abi's information processing style of gathering detailed information before making decisions.</t>
         </is>
       </c>
     </row>
@@ -434,53 +434,53 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page layout is clear, and the information about the conference is visible as she scrolls down. This action does not require high technical skills, so Abi's low computer self-efficacy will not hinder her from performing this action.</t>
+Facets: 2. Information Processing Style
+Why: Scrolling down to find more information aligns with Abi's comprehensive information processing style. The page is well-structured and provides clear sections, making it easy for Abi to understand that she needs to scroll down to find detailed information about what is being presented at the conference.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After scrolling down, Abi will see detailed information about the conference, including the schedule overview, keynotes, and other events. This comprehensive information will help her understand what is being presented at the conference, aligning with her information processing style. Additionally, this information is directly relevant to her motivation to decide whether to attend the conference, so she will know she is making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is structured in a way that suggests scrolling down to find more information. The presence of a schedule overview and keynotes section visible on the page indicates that more detailed information is available further down. This aligns with Abi's comprehensive information processing style, as she will recognize that scrolling down is necessary to gather all the relevant details about what is being presented at the conference.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down, Abi will see some information about the conference, such as keynotes and a schedule overview. However, the page does not provide comprehensive details about all the presentations at the conference. Abi's comprehensive information processing style means she needs detailed information to feel confident in her decision-making. Additionally, her low computer self-efficacy might make her uncertain if she has found all the necessary information, leading to frustration or confusion. Therefore, she may not feel she has made sufficient progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page layout is clear and straightforward, with visible sections and headings that indicate more information is available below. Scrolling down is a simple and intuitive action that does not require high technical skills, making it easy for Abi to perform. Additionally, the presence of relevant information at the top of the page suggests that more detailed information can be found by scrolling, aligning with Abi's comprehensive information processing style. Therefore, Abi will know what to do at this step and will feel confident in taking this action.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+Why: While scrolling down will provide Abi with some information about the keynotes and a schedule overview, it may not be comprehensive enough for her to feel confident that she has all the necessary details about what is being presented at the conference. Abi's information processing style is comprehensive, and she may need more detailed information about the sessions, papers, and events. Additionally, her low computer self-efficacy might make her uncertain if she has found all the relevant information, especially if the page does not explicitly state that it contains all the details she needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The link labeled "Program of POPL 2019" is clearly visible and suggests that it will provide detailed information about the conference program. This aligns with Abi's motivation to find out what is being presented at the conference. Additionally, clicking on a clearly labeled link to gather more information fits with her comprehensive information processing style, as she is likely to recognize that this action will help her achieve her subgoal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down, Abi will see some information about the conference, such as keynotes and a schedule overview. However, this information is not comprehensive enough to give her a full understanding of what is being presented at the conference. Abi's comprehensive information processing style means she needs detailed and complete information to feel confident in her decision-making. Additionally, her low computer self-efficacy might make her uncertain if she has found all the necessary information, leading to frustration or confusion. Therefore, she may not feel she has made sufficient progress toward her goal and may not get all the information she needs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The link "Program of POPL 2019" is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify and understand that clicking it will provide more detailed information about the conference program. This aligns with her comprehensive information processing style, as she is likely to look for specific links that will give her the detailed information she needs. Additionally, the clear labeling and placement of the link help mitigate any potential issues related to her low computer self-efficacy, making her feel confident in taking this action.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking the "Program of POPL 2019" link, Abi will land on a page that provides a detailed schedule of the conference, including the titles and times of presentations. This aligns with her comprehensive information processing style, as she will have access to the detailed information she needs to make an informed decision about attending the conference. The detailed schedule will also satisfy her motivation to understand what is being presented at the conference. Therefore, Abi will know that she did the right thing and is making progress toward her goal, and she will get all the information she needs.</t>
+Why: While Abi will land on a page with a detailed program, the sheer volume of information presented in a long, continuous list may be overwhelming. Abi's comprehensive information processing style means she needs to gather and understand all relevant details, but the format here might make it difficult for her to find specific information efficiently. Additionally, her low computer self-efficacy could make her feel uncertain about whether she has found all the necessary information, especially if the page is not well-organized or lacks clear navigation aids. This could hinder her confidence in making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -488,17 +488,17 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page layout is clear and straightforward, with a detailed schedule of the conference presentations. Scrolling down is a simple and intuitive action that does not require high technical skills, making it easy for Abi to perform. Additionally, the presence of a detailed schedule aligns with Abi's comprehensive information processing style, as she will be able to see all the information she needs by scrolling. Therefore, Abi will know what to do at this step and will feel confident in taking this action.</t>
+Facets: 2. Information Processing Style
+Why: The page is structured as a long list of sessions and events, which suggests that scrolling down will reveal more information. This aligns with Abi's comprehensive information processing style, as she will understand that she needs to scroll to gather all the relevant details about what is being presented at the conference. The page layout makes it clear that more information is available further down, so Abi will know what to do at this step.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After scrolling down, Abi will see a detailed schedule of the conference presentations, including titles and times. This aligns with her comprehensive information processing style, as she will have access to the detailed information she needs to make an informed decision about attending the conference. The detailed schedule will also satisfy her motivation to understand what is being presented at the conference. Therefore, Abi will know that she did the right thing and is making progress toward her goal, and she will get all the information she needs.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling down will reveal more information, the page presents a very long and dense list of sessions and events. This format can be overwhelming and difficult to navigate, making it hard for Abi to feel confident that she has found all the necessary information. Abi's comprehensive information processing style means she needs to gather and understand all relevant details, but the sheer volume and lack of clear organization may hinder her ability to do so efficiently. Additionally, her low computer self-efficacy could make her uncertain about whether she has successfully gathered all the information she needs, affecting her confidence in making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is densely packed with information, and it may not be immediately clear to Abi which links are clickable or what each link will lead to. Given Abi's low computer self-efficacy, she might feel uncertain or overwhelmed by the number of options and the lack of clear instructions. Additionally, Abi prefers process-oriented learning and may not feel confident clicking on links without clear guidance on what they will do. Therefore, she may not know what to do at this step, and the page is not good enough for her to take this action confidently.</t>
+Why: The page is very dense and contains a lot of information, which can be overwhelming for Abi. There is no clear indication or instruction on the page about what clicking on a "distinguished paper" link will do or where it will lead. Given Abi's low computer self-efficacy, she may feel uncertain and hesitant to click on links without clear guidance. Additionally, Abi prefers process-oriented learning and may not feel confident in taking actions without explicit instructions, making it difficult for her to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with information about the paper, including the title, authors, and a summary. This aligns with her comprehensive information processing style, as she will have access to the detailed information she needs to make an informed decision about attending the conference. The detailed pop-up will also satisfy her motivation to understand what is being presented at the conference. Therefore, Abi will know that she did the right thing and is making progress toward her goal, and she will get all the information she needs.</t>
+Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, authors, and a summary. This aligns with her comprehensive information processing style, as it provides the detailed information she needs to understand what is being presented. Additionally, this action directly contributes to her motivation to find out what is being presented at the conference, helping her make an informed decision about attending. The clear and detailed presentation of information will make Abi feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -525,34 +525,34 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The current page does not provide a clear and intuitive way to navigate back to the main page. Abi, with her low computer self-efficacy, might feel uncertain about how to return to the main page to check the tutorial. Additionally, there are no clear instructions or visible navigation options that align with her process-oriented learning style. This lack of guidance may make her hesitant to take the action, as she might fear getting lost or not being able to find her way back. Therefore, the page is not good enough for Abi to confidently take this action.</t>
+Why: The current page does not provide clear instructions or a visible navigation option to go back to the main page. Given Abi's low computer self-efficacy, she may feel uncertain about how to navigate back to the main page without explicit guidance. Additionally, Abi prefers process-oriented learning and may struggle without clear, step-by-step instructions on how to return to the main page to check the tutorial. The lack of clear navigation options or instructions on the page makes it difficult for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: If Abi successfully navigates back to the main page, she will recognize that she is making progress toward her goal of finding out what is being presented at the conference. The main page provides a clear overview of the conference, including links to the program and tutorials. This aligns with her comprehensive information processing style, as she will be able to gather more detailed information about the tutorials. Additionally, this action directly contributes to her motivation to find out what is being presented at the conference, helping her make an informed decision about attending. The clear structure and relevant links on the main page will make Abi feel confident that she is making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The page clearly lists "TutorialFest" as part of the schedule overview, and the links are prominently displayed. This makes it easy for Abi to understand that clicking on one of the TutorialFest links will provide her with more information about the tutorials being presented at the conference. This action aligns with her comprehensive information processing style, as she will be able to gather detailed information about the tutorials. Additionally, this action directly contributes to her motivation to find out what is being presented at the conference, helping her make an informed decision about attending. The clear labeling and structure of the page make it straightforward for Abi to know what to do at this step.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After navigating back to the main page, Abi will see the same initial information she encountered before. While the page provides some details about the conference, it does not offer comprehensive information about the tutorials. Abi's comprehensive information processing style means she needs detailed and complete information to feel confident in her decision-making. Additionally, her low computer self-efficacy might make her uncertain if she has found all the necessary information, leading to frustration or confusion. Therefore, she may not feel she has made sufficient progress toward her goal and may not get all the information she needs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide clear instructions or indications that the "TutorialFest" links are clickable or what specific information they will lead to. Given Abi's low computer self-efficacy, she might feel uncertain about clicking on these links without clear guidance. Additionally, Abi prefers process-oriented learning and may not feel confident clicking on links without knowing exactly what they will do. This lack of clear instructions and guidance may make her hesitant to take the action, as she might fear getting lost or not finding the information she needs. Therefore, the page is not good enough for Abi to confidently take this action.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the TutorialFest link, Abi lands on a page that provides some information about the tutorials, but it is not comprehensive. The page includes important dates and the names of the evaluation committee members, but it lacks detailed information about the specific tutorials being offered. Abi's comprehensive information processing style means she needs detailed and complete information to feel confident in her decision-making. Additionally, her low computer self-efficacy might make her uncertain if she has found all the necessary information, leading to frustration or confusion. Therefore, she may not feel she has made sufficient progress toward her goal and may not get all the information she needs.</t>
+Why: After clicking on the TutorialFest link, Abi lands on a page that provides some information but lacks detailed content about the tutorials themselves. The page has links to "About," "Program," "List of Tutorials," and "Call for Tutorials," but Abi will need to click further to find the specific information she needs. Given her comprehensive information processing style, she may not feel that she has all the necessary details immediately. Additionally, her low computer self-efficacy might make her uncertain about whether she is on the right track, as the page does not provide immediate, detailed information about the tutorials. This could hinder her confidence in making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE3.xlsx
+++ b/outputs/MYRTLE3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial information for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, the page provides a comprehensive overview of the schedule and keynotes, which fits Abi's information processing style of gathering detailed information before making decisions.</t>
+Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and links to papers, which aligns with her comprehensive information processing style, helping her gather the necessary information.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down to find more information aligns with Abi's comprehensive information processing style. The page is well-structured and provides clear sections, making it easy for Abi to understand that she needs to scroll down to find detailed information about what is being presented at the conference.</t>
+Why: Scrolling down aligns with Abi's comprehensive information processing style. The page provides clear sections like "Schedule Overview" and "Keynotes," which are likely to help her find relevant information about the conference presentations.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After scrolling down, Abi will see detailed information about the conference, including the schedule overview, keynotes, and other events. This comprehensive information will help her understand what is being presented at the conference, aligning with her information processing style. Additionally, this information is directly relevant to her motivation to decide whether to attend the conference, so she will know she is making progress toward her goal.</t>
+Facets: 2. Information Processing Style
+Why: By scrolling down, Abi will see the "Schedule Overview" and "Keynotes" sections, which provide relevant information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -453,106 +453,106 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page is structured in a way that suggests scrolling down to find more information. The presence of a schedule overview and keynotes section visible on the page indicates that more detailed information is available further down. This aligns with Abi's comprehensive information processing style, as she will recognize that scrolling down is necessary to gather all the relevant details about what is being presented at the conference.</t>
+Why: Scrolling down is a natural action to view more content on a webpage. The page layout suggests there is more information below, which aligns with Abi's comprehensive information processing style, making it clear that scrolling will reveal additional details about the conference.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling down, Abi will see the "Schedule Overview" and "Keynotes," which provide relevant information about the conference presentations. This confirms she is making progress toward her goal and aligns with her comprehensive information processing style.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The "Program of POPL 2019" link is clearly labeled and suggests it will provide detailed information about the conference presentations. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down will provide Abi with some information about the keynotes and a schedule overview, it may not be comprehensive enough for her to feel confident that she has all the necessary details about what is being presented at the conference. Abi's information processing style is comprehensive, and she may need more detailed information about the sessions, papers, and events. Additionally, her low computer self-efficacy might make her uncertain if she has found all the relevant information, especially if the page does not explicitly state that it contains all the details she needs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The link labeled "Program of POPL 2019" is clearly visible and suggests that it will provide detailed information about the conference program. This aligns with Abi's motivation to find out what is being presented at the conference. Additionally, clicking on a clearly labeled link to gather more information fits with her comprehensive information processing style, as she is likely to recognize that this action will help her achieve her subgoal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+Why: The page contains a large amount of detailed information, which might be overwhelming for Abi. Her comprehensive information processing style may struggle with the volume of data, and her low computer self-efficacy might make it difficult for her to efficiently navigate and extract the needed information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page layout suggests there is more content below, which is a common way to access additional information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will land on a page with a detailed program, the sheer volume of information presented in a long, continuous list may be overwhelming. Abi's comprehensive information processing style means she needs to gather and understand all relevant details, but the format here might make it difficult for her to find specific information efficiently. Additionally, her low computer self-efficacy could make her feel uncertain about whether she has found all the necessary information, especially if the page is not well-organized or lacks clear navigation aids. This could hinder her confidence in making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page is structured as a long list of sessions and events, which suggests that scrolling down will reveal more information. This aligns with Abi's comprehensive information processing style, as she will understand that she needs to scroll to gather all the relevant details about what is being presented at the conference. The page layout makes it clear that more information is available further down, so Abi will know what to do at this step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+Why: Although scrolling down is a natural action, the overwhelming amount of detailed information on the page may make it difficult for Abi to know if she is making progress. Her comprehensive information processing style and low computer self-efficacy might hinder her ability to efficiently find and process the necessary information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is dense with information, and without clear guidance or labels indicating which papers are distinguished, Abi might struggle to identify the correct link to click. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident taking this action without explicit instructions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page clearly labels "Distinguished Paper," making it easy for Abi to confirm she clicked the right link. This aligns with her comprehensive information processing style, helping her know she is making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide a clear way to navigate back to the main page, which might confuse Abi. Her low computer self-efficacy and preference for clear instructions mean she may not feel confident in taking this action without explicit navigation options.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Returning to the main page allows Abi to access the "TutorialFest" section, which is clearly visible. This aligns with her comprehensive information processing style, helping her confirm she is making progress toward her goal of exploring the program.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The "TutorialFest" section is clearly visible with links to individual tutorials. This aligns with Abi's motivation to explore the program and her comprehensive information processing style, making it clear what action to take.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down will reveal more information, the page presents a very long and dense list of sessions and events. This format can be overwhelming and difficult to navigate, making it hard for Abi to feel confident that she has found all the necessary information. Abi's comprehensive information processing style means she needs to gather and understand all relevant details, but the sheer volume and lack of clear organization may hinder her ability to do so efficiently. Additionally, her low computer self-efficacy could make her uncertain about whether she has successfully gathered all the information she needs, affecting her confidence in making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is very dense and contains a lot of information, which can be overwhelming for Abi. There is no clear indication or instruction on the page about what clicking on a "distinguished paper" link will do or where it will lead. Given Abi's low computer self-efficacy, she may feel uncertain and hesitant to click on links without clear guidance. Additionally, Abi prefers process-oriented learning and may not feel confident in taking actions without explicit instructions, making it difficult for her to know what to do at this step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, authors, and a summary. This aligns with her comprehensive information processing style, as it provides the detailed information she needs to understand what is being presented. Additionally, this action directly contributes to her motivation to find out what is being presented at the conference, helping her make an informed decision about attending. The clear and detailed presentation of information will make Abi feel confident that she is making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The current page does not provide clear instructions or a visible navigation option to go back to the main page. Given Abi's low computer self-efficacy, she may feel uncertain about how to navigate back to the main page without explicit guidance. Additionally, Abi prefers process-oriented learning and may struggle without clear, step-by-step instructions on how to return to the main page to check the tutorial. The lack of clear navigation options or instructions on the page makes it difficult for Abi to know what to do at this step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: If Abi successfully navigates back to the main page, she will recognize that she is making progress toward her goal of finding out what is being presented at the conference. The main page provides a clear overview of the conference, including links to the program and tutorials. This aligns with her comprehensive information processing style, as she will be able to gather more detailed information about the tutorials. Additionally, this action directly contributes to her motivation to find out what is being presented at the conference, helping her make an informed decision about attending. The clear structure and relevant links on the main page will make Abi feel confident that she is making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The page clearly lists "TutorialFest" as part of the schedule overview, and the links are prominently displayed. This makes it easy for Abi to understand that clicking on one of the TutorialFest links will provide her with more information about the tutorials being presented at the conference. This action aligns with her comprehensive information processing style, as she will be able to gather detailed information about the tutorials. Additionally, this action directly contributes to her motivation to find out what is being presented at the conference, helping her make an informed decision about attending. The clear labeling and structure of the page make it straightforward for Abi to know what to do at this step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the TutorialFest link, Abi lands on a page that provides some information but lacks detailed content about the tutorials themselves. The page has links to "About," "Program," "List of Tutorials," and "Call for Tutorials," but Abi will need to click further to find the specific information she needs. Given her comprehensive information processing style, she may not feel that she has all the necessary details immediately. Additionally, her low computer self-efficacy might make her uncertain about whether she is on the right track, as the page does not provide immediate, detailed information about the tutorials. This could hinder her confidence in making progress toward her goal.</t>
+Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi may not feel she has made significant progress toward her goal of understanding what is being presented, due to her need for comprehensive information and low confidence in navigating unclear pages.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE3.xlsx
+++ b/outputs/MYRTLE3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and links to papers, which aligns with her comprehensive information processing style, helping her gather the necessary information.</t>
+Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and information about keynotes and tutorials, which aligns with her comprehensive information processing style. This information would help her assess the value of attending the conference.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down aligns with Abi's comprehensive information processing style. The page provides clear sections like "Schedule Overview" and "Keynotes," which are likely to help her find relevant information about the conference presentations.</t>
+Why: The page is structured with clear sections, including a schedule overview and keynotes, which aligns with Abi's comprehensive information processing style. Scrolling down to gather more information is a natural step for her to take in order to understand what is being presented at the conference.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: By scrolling down, Abi will see the "Schedule Overview" and "Keynotes" sections, which provide relevant information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+Why: After scrolling down, Abi will see the schedule overview, keynotes, and tutorials, which provide detailed information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal of understanding the conference content.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down is a natural action to view more content on a webpage. The page layout suggests there is more information below, which aligns with Abi's comprehensive information processing style, making it clear that scrolling will reveal additional details about the conference.</t>
+Why: The page is well-organized with visible sections like the schedule overview and keynotes, which suggest that scrolling down will provide more detailed information. This aligns with Abi's comprehensive information processing style, making it clear that scrolling is the right action to gather more information about the conference.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: By scrolling down, Abi will see the "Schedule Overview" and "Keynotes," which provide relevant information about the conference presentations. This confirms she is making progress toward her goal and aligns with her comprehensive information processing style.</t>
+Why: By scrolling down, Abi will see the schedule overview, keynotes, and tutorials, which provide detailed information about the conference presentations. This confirms she is making progress toward her goal and aligns with her comprehensive information processing style, ensuring she gets the information she needs.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The "Program of POPL 2019" link is clearly labeled and suggests it will provide detailed information about the conference presentations. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The link labeled "Program of POPL 2019 and co-located events" clearly indicates that it will provide detailed information about the conference program. This aligns with Abi's comprehensive information processing style and her preference for process-oriented learning, making it clear that clicking the link is the right action to take.</t>
         </is>
       </c>
     </row>
@@ -480,16 +480,16 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a large amount of detailed information, which might be overwhelming for Abi. Her comprehensive information processing style may struggle with the volume of data, and her low computer self-efficacy might make it difficult for her to efficiently navigate and extract the needed information.</t>
+Why: The page contains a large amount of detailed information, which might be overwhelming for Abi. Her comprehensive information processing style could make it difficult to quickly determine if she has all the necessary information. Additionally, her low computer self-efficacy might make her unsure if she is effectively navigating the page to find what she needs.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page layout suggests there is more content below, which is a common way to access additional information.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page is densely packed with information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to discern what to focus on. Additionally, her low computer self-efficacy could lead to uncertainty about how to effectively navigate and extract the needed information from such a detailed page.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although scrolling down is a natural action, the overwhelming amount of detailed information on the page may make it difficult for Abi to know if she is making progress. Her comprehensive information processing style and low computer self-efficacy might hinder her ability to efficiently find and process the necessary information.</t>
+Why: The page is overwhelming with a large amount of detailed information, making it difficult for Abi to determine if she is making progress. Her comprehensive information processing style might lead to confusion, and her low computer self-efficacy could cause uncertainty about whether she has found all the necessary information.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and without clear guidance or labels indicating which papers are distinguished, Abi might struggle to identify the correct link to click. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident taking this action without explicit instructions.</t>
+Why: The page is densely packed with information, and it may not be immediately clear to Abi where the "distinguished paper" link is located. Her low computer self-efficacy might make her hesitant to click without clear guidance, and her preference for process-oriented learning means she might struggle without explicit instructions.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page clearly labels "Distinguished Paper," making it easy for Abi to confirm she clicked the right link. This aligns with her comprehensive information processing style, helping her know she is making progress toward her goal.</t>
+Why: The page clearly lists the distinguished papers with their titles and times, which aligns with Abi's comprehensive information processing style. This clarity helps her know she is making progress toward her goal of understanding what is being presented at the conference.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide a clear way to navigate back to the main page, which might confuse Abi. Her low computer self-efficacy and preference for clear instructions mean she may not feel confident in taking this action without explicit navigation options.</t>
+Why: The page does not provide clear navigation options or instructions for returning to the main page to check tutorials. Abi's low computer self-efficacy and preference for process-oriented learning might make her unsure about how to proceed without explicit guidance.</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Returning to the main page allows Abi to access the "TutorialFest" section, which is clearly visible. This aligns with her comprehensive information processing style, helping her confirm she is making progress toward her goal of exploring the program.</t>
+Why: Returning to the main page allows Abi to see the schedule overview and tutorial information, which are clearly presented. This aligns with her comprehensive information processing style, helping her confirm she is making progress toward her goal of understanding the conference offerings.</t>
         </is>
       </c>
     </row>
@@ -542,8 +542,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The "TutorialFest" section is clearly visible with links to individual tutorials. This aligns with Abi's motivation to explore the program and her comprehensive information processing style, making it clear what action to take.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page clearly displays the TutorialFest section with clickable links, making it straightforward for Abi to understand that clicking will provide more information. This aligns with her comprehensive information processing style and preference for structured learning.</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi may not feel she has made significant progress toward her goal of understanding what is being presented, due to her need for comprehensive information and low confidence in navigating unclear pages.</t>
+Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi's comprehensive information processing style requires more specific content to feel she is making progress. Her low computer self-efficacy might also make her uncertain if she has accessed all the necessary information.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE3.xlsx
+++ b/outputs/MYRTLE3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and information about keynotes and tutorials, which aligns with her comprehensive information processing style. This information would help her assess the value of attending the conference.</t>
+Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and links to papers and events, aligning with her comprehensive information processing style. This information helps her assess the conference's relevance to her interests and work.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page is structured with clear sections, including a schedule overview and keynotes, which aligns with Abi's comprehensive information processing style. Scrolling down to gather more information is a natural step for her to take in order to understand what is being presented at the conference.</t>
+Why: The page is structured with clear sections and headings, such as "Schedule Overview" and "Keynotes," which guide Abi to scroll down for more information. This aligns with her comprehensive information processing style, as she is likely to explore the page to gather all relevant details about the conference presentations.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: After scrolling down, Abi will see the schedule overview, keynotes, and tutorials, which provide detailed information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal of understanding the conference content.</t>
+Why: By scrolling down, Abi can see the "Schedule Overview" and "Keynotes," which provide relevant information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal of understanding the conference content.</t>
         </is>
       </c>
     </row>
@@ -453,16 +453,16 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page is well-organized with visible sections like the schedule overview and keynotes, which suggest that scrolling down will provide more detailed information. This aligns with Abi's comprehensive information processing style, making it clear that scrolling is the right action to gather more information about the conference.</t>
+Why: The page layout includes clear sections and headings, such as "Schedule Overview" and "Keynotes," which indicate that more information is available by scrolling. This aligns with Abi's comprehensive information processing style, guiding her to scroll down to gather more details about the conference presentations.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: By scrolling down, Abi will see the schedule overview, keynotes, and tutorials, which provide detailed information about the conference presentations. This confirms she is making progress toward her goal and aligns with her comprehensive information processing style, ensuring she gets the information she needs.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling down provides some information, it may not be comprehensive enough for Abi to feel confident she has all the details she needs. The page offers an overview, but Abi might require more specific information about the presentations, which isn't fully detailed here. Her need for comprehensive information and low confidence in unfamiliar tasks may leave her uncertain about her progress.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The link labeled "Program of POPL 2019 and co-located events" clearly indicates that it will provide detailed information about the conference program. This aligns with Abi's comprehensive information processing style and her preference for process-oriented learning, making it clear that clicking the link is the right action to take.</t>
+Facets: 2. Information Processing Style
+Why: The link labeled "Program of POPL 2019 and co-located events" is clearly visible and suggests it will provide detailed information about the conference presentations. This aligns with Abi's comprehensive information processing style, as she is likely to click on it to gather more specific details about the conference content.</t>
         </is>
       </c>
     </row>
@@ -480,79 +480,79 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a large amount of detailed information, which might be overwhelming for Abi. Her comprehensive information processing style could make it difficult to quickly determine if she has all the necessary information. Additionally, her low computer self-efficacy might make her unsure if she is effectively navigating the page to find what she needs.</t>
+Why: The page contains a large amount of detailed information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult for her to quickly find the specific details she needs. Additionally, her low computer self-efficacy could lead to uncertainty about whether she has gathered all the necessary information, making it hard for her to feel confident in her progress.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is structured with a list format, which suggests that scrolling will reveal more information. This aligns with Abi's comprehensive information processing style, as she is likely to scroll to gather all relevant details about the conference program. The page layout encourages exploration by scrolling.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is densely packed with information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to discern what to focus on. Additionally, her low computer self-efficacy could lead to uncertainty about how to effectively navigate and extract the needed information from such a detailed page.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+Why: Although scrolling reveals more information, the sheer volume and density of the content may overwhelm Abi. Her comprehensive information processing style might make it difficult to quickly identify the specific details she needs. Additionally, her low computer self-efficacy could lead to uncertainty about whether she has gathered all necessary information, making it hard for her to feel confident in her progress.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is dense with information, and it may not be immediately clear to Abi where the "distinguished paper" link is located. Her low computer self-efficacy might make her hesitant to click without clear guidance, and her preference for process-oriented learning means she might struggle without explicit instructions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page clearly lists the distinguished papers with labels, making it easy for Abi to see that she is viewing the right content. This aligns with her comprehensive information processing style, as she can confirm she is making progress toward her goal of understanding what is being presented at the conference. The structured format helps her feel confident she has accessed the necessary information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide a clear or intuitive way to navigate back to the main page. Abi's low computer self-efficacy and preference for process-oriented learning mean she might struggle to find the correct way to return to the main page without explicit instructions or a visible navigation option.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Returning to the main page allows Abi to access the "TutorialFest" section, which is clearly visible. This aligns with her comprehensive information processing style, as she can now explore additional content related to the conference. The structured layout helps her confirm she is making progress toward her goal of understanding the conference offerings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The "TutorialFest" section is clearly labeled and visually distinct, making it easy for Abi to identify and click on a link to explore further. This aligns with her comprehensive information processing style, as she can easily navigate to gather more details about the tutorials offered at the conference.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is overwhelming with a large amount of detailed information, making it difficult for Abi to determine if she is making progress. Her comprehensive information processing style might lead to confusion, and her low computer self-efficacy could cause uncertainty about whether she has found all the necessary information.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is densely packed with information, and it may not be immediately clear to Abi where the "distinguished paper" link is located. Her low computer self-efficacy might make her hesitant to click without clear guidance, and her preference for process-oriented learning means she might struggle without explicit instructions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page clearly lists the distinguished papers with their titles and times, which aligns with Abi's comprehensive information processing style. This clarity helps her know she is making progress toward her goal of understanding what is being presented at the conference.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide clear navigation options or instructions for returning to the main page to check tutorials. Abi's low computer self-efficacy and preference for process-oriented learning might make her unsure about how to proceed without explicit guidance.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Returning to the main page allows Abi to see the schedule overview and tutorial information, which are clearly presented. This aligns with her comprehensive information processing style, helping her confirm she is making progress toward her goal of understanding the conference offerings.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page clearly displays the TutorialFest section with clickable links, making it straightforward for Abi to understand that clicking will provide more information. This aligns with her comprehensive information processing style and preference for structured learning.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi's comprehensive information processing style requires more specific content to feel she is making progress. Her low computer self-efficacy might also make her uncertain if she has accessed all the necessary information.</t>
+Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi's comprehensive information processing style means she needs more specific content to feel she is making progress. Her low computer self-efficacy might also make her uncertain about whether she has accessed all necessary information.</t>
         </is>
       </c>
     </row>
